--- a/사자산기실기/SPS/공개문제1번(0629-1).xlsx
+++ b/사자산기실기/SPS/공개문제1번(0629-1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeji\OneDrive\바탕 화면\CertificationTest\사자산기실기\SPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUHAN\Desktop\CertificationTest\사자산기실기\SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C002B-A0C6-4186-9E3F-CD6E68799A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1978286E-2015-4C99-BBFA-9E9634357D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{39007946-07E9-441A-B3B7-FFF2F2A5573E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39007946-07E9-441A-B3B7-FFF2F2A5573E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -319,12 +330,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,17 +340,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,16 +364,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1597,13 +1605,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>29766</xdr:colOff>
+      <xdr:colOff>29765</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>27582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>642540</xdr:colOff>
+      <xdr:colOff>648890</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>56752</xdr:rowOff>
     </xdr:to>
@@ -1955,951 +1963,951 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>62</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>92</v>
       </c>
-      <c r="E3" s="12">
-        <f>IF(B3="A",20,IF(B3="B",15,IF(B3="C",10,0)))</f>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E22" si="0">IF(B3="A",20,IF(B3="B",15,IF(B3="C",10,0)))</f>
         <v>20</v>
       </c>
-      <c r="F3" s="12">
-        <f>E3+((C3+D3)*40%)</f>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F22" si="1">E3+((C3+D3)*40%)</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="G3" s="12">
-        <f>IF(D3&gt;=C3,D3*20%,C3*10%)</f>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G22" si="2">IF(D3&gt;=C3,D3*20%,C3*10%)</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="H3" s="12">
-        <f>F3+G3</f>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H22" si="3">F3+G3</f>
         <v>100</v>
       </c>
-      <c r="I3" s="13">
-        <f>RANK(H3,$H$3:$H$22)</f>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I22" si="4">RANK(H3,$H$3:$H$22)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="11" t="str">
-        <f>IF(H3&gt;=90,"최우수",IF(H3&gt;=80,"우수",IF(H3&lt;60,"미달","보통")))</f>
+      <c r="J3" s="7" t="str">
+        <f t="shared" ref="J3:J22" si="5">IF(H3&gt;=90,"최우수",IF(H3&gt;=80,"우수",IF(H3&lt;60,"미달","보통")))</f>
         <v>최우수</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>65</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>88</v>
       </c>
-      <c r="E4" s="12">
-        <f>IF(B4="A",20,IF(B4="B",15,IF(B4="C",10,0)))</f>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F4" s="12">
-        <f>E4+((C4+D4)*40%)</f>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
         <v>76.2</v>
       </c>
-      <c r="G4" s="12">
-        <f>IF(D4&gt;=C4,D4*20%,C4*10%)</f>
+      <c r="G4" s="8">
+        <f t="shared" si="2"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="H4" s="12">
-        <f>F4+G4</f>
+      <c r="H4" s="8">
+        <f t="shared" si="3"/>
         <v>93.800000000000011</v>
       </c>
-      <c r="I4" s="13">
-        <f>RANK(H4,$H$3:$H$22)</f>
+      <c r="I4" s="9">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J4" s="11" t="str">
-        <f>IF(H4&gt;=90,"최우수",IF(H4&gt;=80,"우수",IF(H4&lt;60,"미달","보통")))</f>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>최우수</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>62</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>80</v>
       </c>
-      <c r="E5" s="12">
-        <f>IF(B5="A",20,IF(B5="B",15,IF(B5="C",10,0)))</f>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F5" s="12">
-        <f>E5+((C5+D5)*40%)</f>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
         <v>76.800000000000011</v>
       </c>
-      <c r="G5" s="12">
-        <f>IF(D5&gt;=C5,D5*20%,C5*10%)</f>
+      <c r="G5" s="8">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H5" s="12">
-        <f>F5+G5</f>
+      <c r="H5" s="8">
+        <f t="shared" si="3"/>
         <v>92.800000000000011</v>
       </c>
-      <c r="I5" s="13">
-        <f>RANK(H5,$H$3:$H$22)</f>
+      <c r="I5" s="9">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J5" s="11" t="str">
-        <f>IF(H5&gt;=90,"최우수",IF(H5&gt;=80,"우수",IF(H5&lt;60,"미달","보통")))</f>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>최우수</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>85</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>74</v>
       </c>
-      <c r="E6" s="12">
-        <f>IF(B6="A",20,IF(B6="B",15,IF(B6="C",10,0)))</f>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F6" s="12">
-        <f>E6+((C6+D6)*40%)</f>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
         <v>83.6</v>
       </c>
-      <c r="G6" s="12">
-        <f>IF(D6&gt;=C6,D6*20%,C6*10%)</f>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="H6" s="12">
-        <f>F6+G6</f>
+      <c r="H6" s="8">
+        <f t="shared" si="3"/>
         <v>92.1</v>
       </c>
-      <c r="I6" s="13">
-        <f>RANK(H6,$H$3:$H$22)</f>
+      <c r="I6" s="9">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J6" s="11" t="str">
-        <f>IF(H6&gt;=90,"최우수",IF(H6&gt;=80,"우수",IF(H6&lt;60,"미달","보통")))</f>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>최우수</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>70</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>72</v>
       </c>
-      <c r="E7" s="12">
-        <f>IF(B7="A",20,IF(B7="B",15,IF(B7="C",10,0)))</f>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F7" s="12">
-        <f>E7+((C7+D7)*40%)</f>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
         <v>76.800000000000011</v>
       </c>
-      <c r="G7" s="12">
-        <f>IF(D7&gt;=C7,D7*20%,C7*10%)</f>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
         <v>14.4</v>
       </c>
-      <c r="H7" s="12">
-        <f>F7+G7</f>
+      <c r="H7" s="8">
+        <f t="shared" si="3"/>
         <v>91.200000000000017</v>
       </c>
-      <c r="I7" s="13">
-        <f>RANK(H7,$H$3:$H$22)</f>
+      <c r="I7" s="9">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J7" s="11" t="str">
-        <f>IF(H7&gt;=90,"최우수",IF(H7&gt;=80,"우수",IF(H7&lt;60,"미달","보통")))</f>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>최우수</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>77</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>78</v>
       </c>
-      <c r="E8" s="12">
-        <f>IF(B8="A",20,IF(B8="B",15,IF(B8="C",10,0)))</f>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="12">
-        <f>E8+((C8+D8)*40%)</f>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="G8" s="12">
-        <f>IF(D8&gt;=C8,D8*20%,C8*10%)</f>
+      <c r="G8" s="8">
+        <f t="shared" si="2"/>
         <v>15.600000000000001</v>
       </c>
-      <c r="H8" s="12">
-        <f>F8+G8</f>
+      <c r="H8" s="8">
+        <f t="shared" si="3"/>
         <v>87.6</v>
       </c>
-      <c r="I8" s="13">
-        <f>RANK(H8,$H$3:$H$22)</f>
+      <c r="I8" s="9">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J8" s="11" t="str">
-        <f>IF(H8&gt;=90,"최우수",IF(H8&gt;=80,"우수",IF(H8&lt;60,"미달","보통")))</f>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>우수</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <v>69</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>82</v>
       </c>
-      <c r="E9" s="12">
-        <f>IF(B9="A",20,IF(B9="B",15,IF(B9="C",10,0)))</f>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F9" s="12">
-        <f>E9+((C9+D9)*40%)</f>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="G9" s="12">
-        <f>IF(D9&gt;=C9,D9*20%,C9*10%)</f>
+      <c r="G9" s="8">
+        <f t="shared" si="2"/>
         <v>16.400000000000002</v>
       </c>
-      <c r="H9" s="12">
-        <f>F9+G9</f>
+      <c r="H9" s="8">
+        <f t="shared" si="3"/>
         <v>86.800000000000011</v>
       </c>
-      <c r="I9" s="13">
-        <f>RANK(H9,$H$3:$H$22)</f>
+      <c r="I9" s="9">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J9" s="11" t="str">
-        <f>IF(H9&gt;=90,"최우수",IF(H9&gt;=80,"우수",IF(H9&lt;60,"미달","보통")))</f>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>우수</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>84</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>65</v>
       </c>
-      <c r="E10" s="12">
-        <f>IF(B10="A",20,IF(B10="B",15,IF(B10="C",10,0)))</f>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F10" s="12">
-        <f>E10+((C10+D10)*40%)</f>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="G10" s="12">
-        <f>IF(D10&gt;=C10,D10*20%,C10*10%)</f>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
-      <c r="H10" s="12">
-        <f>F10+G10</f>
+      <c r="H10" s="8">
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="I10" s="13">
-        <f>RANK(H10,$H$3:$H$22)</f>
+      <c r="I10" s="9">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J10" s="11" t="str">
-        <f>IF(H10&gt;=90,"최우수",IF(H10&gt;=80,"우수",IF(H10&lt;60,"미달","보통")))</f>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>우수</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>70</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>73</v>
       </c>
-      <c r="E11" s="12">
-        <f>IF(B11="A",20,IF(B11="B",15,IF(B11="C",10,0)))</f>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F11" s="12">
-        <f>E11+((C11+D11)*40%)</f>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
         <v>67.2</v>
       </c>
-      <c r="G11" s="12">
-        <f>IF(D11&gt;=C11,D11*20%,C11*10%)</f>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
         <v>14.600000000000001</v>
       </c>
-      <c r="H11" s="12">
-        <f>F11+G11</f>
+      <c r="H11" s="8">
+        <f t="shared" si="3"/>
         <v>81.800000000000011</v>
       </c>
-      <c r="I11" s="13">
-        <f>RANK(H11,$H$3:$H$22)</f>
+      <c r="I11" s="9">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J11" s="11" t="str">
-        <f>IF(H11&gt;=90,"최우수",IF(H11&gt;=80,"우수",IF(H11&lt;60,"미달","보통")))</f>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>우수</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>57</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>80</v>
       </c>
-      <c r="E12" s="12">
-        <f>IF(B12="A",20,IF(B12="B",15,IF(B12="C",10,0)))</f>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F12" s="12">
-        <f>E12+((C12+D12)*40%)</f>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
         <v>64.800000000000011</v>
       </c>
-      <c r="G12" s="12">
-        <f>IF(D12&gt;=C12,D12*20%,C12*10%)</f>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H12" s="12">
-        <f>F12+G12</f>
+      <c r="H12" s="8">
+        <f t="shared" si="3"/>
         <v>80.800000000000011</v>
       </c>
-      <c r="I12" s="13">
-        <f>RANK(H12,$H$3:$H$22)</f>
+      <c r="I12" s="9">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J12" s="11" t="str">
-        <f>IF(H12&gt;=90,"최우수",IF(H12&gt;=80,"우수",IF(H12&lt;60,"미달","보통")))</f>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>우수</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="8">
         <v>55</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>64</v>
       </c>
-      <c r="E13" s="12">
-        <f>IF(B13="A",20,IF(B13="B",15,IF(B13="C",10,0)))</f>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F13" s="12">
-        <f>E13+((C13+D13)*40%)</f>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
         <v>67.599999999999994</v>
       </c>
-      <c r="G13" s="12">
-        <f>IF(D13&gt;=C13,D13*20%,C13*10%)</f>
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
         <v>12.8</v>
       </c>
-      <c r="H13" s="12">
-        <f>F13+G13</f>
+      <c r="H13" s="8">
+        <f t="shared" si="3"/>
         <v>80.399999999999991</v>
       </c>
-      <c r="I13" s="13">
-        <f>RANK(H13,$H$3:$H$22)</f>
+      <c r="I13" s="9">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J13" s="11" t="str">
-        <f>IF(H13&gt;=90,"최우수",IF(H13&gt;=80,"우수",IF(H13&lt;60,"미달","보통")))</f>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>우수</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>58</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <v>68</v>
       </c>
-      <c r="E14" s="12">
-        <f>IF(B14="A",20,IF(B14="B",15,IF(B14="C",10,0)))</f>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F14" s="12">
-        <f>E14+((C14+D14)*40%)</f>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
         <v>65.400000000000006</v>
       </c>
-      <c r="G14" s="12">
-        <f>IF(D14&gt;=C14,D14*20%,C14*10%)</f>
+      <c r="G14" s="8">
+        <f t="shared" si="2"/>
         <v>13.600000000000001</v>
       </c>
-      <c r="H14" s="12">
-        <f>F14+G14</f>
+      <c r="H14" s="8">
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="I14" s="13">
-        <f>RANK(H14,$H$3:$H$22)</f>
+      <c r="I14" s="9">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J14" s="11" t="str">
-        <f>IF(H14&gt;=90,"최우수",IF(H14&gt;=80,"우수",IF(H14&lt;60,"미달","보통")))</f>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>보통</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="8">
         <v>54</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>60</v>
       </c>
-      <c r="E15" s="12">
-        <f>IF(B15="A",20,IF(B15="B",15,IF(B15="C",10,0)))</f>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F15" s="12">
-        <f>E15+((C15+D15)*40%)</f>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
         <v>65.599999999999994</v>
       </c>
-      <c r="G15" s="12">
-        <f>IF(D15&gt;=C15,D15*20%,C15*10%)</f>
+      <c r="G15" s="8">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H15" s="12">
-        <f>F15+G15</f>
+      <c r="H15" s="8">
+        <f t="shared" si="3"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="I15" s="13">
-        <f>RANK(H15,$H$3:$H$22)</f>
+      <c r="I15" s="9">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="J15" s="11" t="str">
-        <f>IF(H15&gt;=90,"최우수",IF(H15&gt;=80,"우수",IF(H15&lt;60,"미달","보통")))</f>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>보통</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="8">
         <v>82</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="8">
         <v>48</v>
       </c>
-      <c r="E16" s="12">
-        <f>IF(B16="A",20,IF(B16="B",15,IF(B16="C",10,0)))</f>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F16" s="12">
-        <f>E16+((C16+D16)*40%)</f>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="G16" s="12">
-        <f>IF(D16&gt;=C16,D16*20%,C16*10%)</f>
+      <c r="G16" s="8">
+        <f t="shared" si="2"/>
         <v>8.2000000000000011</v>
       </c>
-      <c r="H16" s="12">
-        <f>F16+G16</f>
+      <c r="H16" s="8">
+        <f t="shared" si="3"/>
         <v>75.2</v>
       </c>
-      <c r="I16" s="13">
-        <f>RANK(H16,$H$3:$H$22)</f>
+      <c r="I16" s="9">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="J16" s="11" t="str">
-        <f>IF(H16&gt;=90,"최우수",IF(H16&gt;=80,"우수",IF(H16&lt;60,"미달","보통")))</f>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>보통</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="8">
         <v>45</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>60</v>
       </c>
-      <c r="E17" s="12">
-        <f>IF(B17="A",20,IF(B17="B",15,IF(B17="C",10,0)))</f>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F17" s="12">
-        <f>E17+((C17+D17)*40%)</f>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="G17" s="12">
-        <f>IF(D17&gt;=C17,D17*20%,C17*10%)</f>
+      <c r="G17" s="8">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H17" s="12">
-        <f>F17+G17</f>
+      <c r="H17" s="8">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="I17" s="13">
-        <f>RANK(H17,$H$3:$H$22)</f>
+      <c r="I17" s="9">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="J17" s="11" t="str">
-        <f>IF(H17&gt;=90,"최우수",IF(H17&gt;=80,"우수",IF(H17&lt;60,"미달","보통")))</f>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>보통</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="8">
         <v>76</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="8">
         <v>60</v>
       </c>
-      <c r="E18" s="12">
-        <f>IF(B18="A",20,IF(B18="B",15,IF(B18="C",10,0)))</f>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18+((C18+D18)*40%)</f>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="G18" s="12">
-        <f>IF(D18&gt;=C18,D18*20%,C18*10%)</f>
+      <c r="G18" s="8">
+        <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
-      <c r="H18" s="12">
-        <f>F18+G18</f>
+      <c r="H18" s="8">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="I18" s="13">
-        <f>RANK(H18,$H$3:$H$22)</f>
+      <c r="I18" s="9">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="J18" s="11" t="str">
-        <f>IF(H18&gt;=90,"최우수",IF(H18&gt;=80,"우수",IF(H18&lt;60,"미달","보통")))</f>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>보통</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="8">
         <v>54</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="8">
         <v>58</v>
       </c>
-      <c r="E19" s="12">
-        <f>IF(B19="A",20,IF(B19="B",15,IF(B19="C",10,0)))</f>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F19" s="12">
-        <f>E19+((C19+D19)*40%)</f>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
         <v>59.800000000000004</v>
       </c>
-      <c r="G19" s="12">
-        <f>IF(D19&gt;=C19,D19*20%,C19*10%)</f>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
         <v>11.600000000000001</v>
       </c>
-      <c r="H19" s="12">
-        <f>F19+G19</f>
+      <c r="H19" s="8">
+        <f t="shared" si="3"/>
         <v>71.400000000000006</v>
       </c>
-      <c r="I19" s="13">
-        <f>RANK(H19,$H$3:$H$22)</f>
+      <c r="I19" s="9">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="J19" s="11" t="str">
-        <f>IF(H19&gt;=90,"최우수",IF(H19&gt;=80,"우수",IF(H19&lt;60,"미달","보통")))</f>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>보통</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="8">
         <v>48</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="8">
         <v>50</v>
       </c>
-      <c r="E20" s="12">
-        <f>IF(B20="A",20,IF(B20="B",15,IF(B20="C",10,0)))</f>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F20" s="12">
-        <f>E20+((C20+D20)*40%)</f>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
         <v>49.2</v>
       </c>
-      <c r="G20" s="12">
-        <f>IF(D20&gt;=C20,D20*20%,C20*10%)</f>
+      <c r="G20" s="8">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H20" s="12">
-        <f>F20+G20</f>
+      <c r="H20" s="8">
+        <f t="shared" si="3"/>
         <v>59.2</v>
       </c>
-      <c r="I20" s="13">
-        <f>RANK(H20,$H$3:$H$22)</f>
+      <c r="I20" s="9">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="J20" s="11" t="str">
-        <f>IF(H20&gt;=90,"최우수",IF(H20&gt;=80,"우수",IF(H20&lt;60,"미달","보통")))</f>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>미달</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="8">
         <v>50</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <v>45</v>
       </c>
-      <c r="E21" s="12">
-        <f>IF(B21="A",20,IF(B21="B",15,IF(B21="C",10,0)))</f>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F21" s="12">
-        <f>E21+((C21+D21)*40%)</f>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="G21" s="12">
-        <f>IF(D21&gt;=C21,D21*20%,C21*10%)</f>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H21" s="12">
-        <f>F21+G21</f>
+      <c r="H21" s="8">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="I21" s="13">
-        <f>RANK(H21,$H$3:$H$22)</f>
+      <c r="I21" s="9">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="J21" s="11" t="str">
-        <f>IF(H21&gt;=90,"최우수",IF(H21&gt;=80,"우수",IF(H21&lt;60,"미달","보통")))</f>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="5"/>
         <v>미달</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="11">
         <v>50</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="11">
         <v>49</v>
       </c>
-      <c r="E22" s="16">
-        <f>IF(B22="A",20,IF(B22="B",15,IF(B22="C",10,0)))</f>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F22" s="16">
-        <f>E22+((C22+D22)*40%)</f>
+      <c r="F22" s="11">
+        <f t="shared" si="1"/>
         <v>49.6</v>
       </c>
-      <c r="G22" s="16">
-        <f>IF(D22&gt;=C22,D22*20%,C22*10%)</f>
+      <c r="G22" s="11">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H22" s="16">
-        <f>F22+G22</f>
+      <c r="H22" s="11">
+        <f t="shared" si="3"/>
         <v>54.6</v>
       </c>
-      <c r="I22" s="17">
-        <f>RANK(H22,$H$3:$H$22)</f>
+      <c r="I22" s="12">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="J22" s="15" t="str">
-        <f>IF(H22&gt;=90,"최우수",IF(H22&gt;=80,"우수",IF(H22&lt;60,"미달","보통")))</f>
+      <c r="J22" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>미달</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10">
+      <c r="B23" s="17"/>
+      <c r="C23" s="6">
         <f>AVERAGE(C3:C22)</f>
         <v>63.65</v>
       </c>
-      <c r="D23" s="10">
-        <f t="shared" ref="D23:H23" si="0">AVERAGE(D3:D22)</f>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:H23" si="6">AVERAGE(D3:D22)</f>
         <v>67.3</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
+      <c r="E23" s="6">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="0"/>
+      <c r="F23" s="6">
+        <f t="shared" si="6"/>
         <v>67.380000000000024</v>
       </c>
-      <c r="G23" s="10">
-        <f t="shared" si="0"/>
+      <c r="G23" s="6">
+        <f t="shared" si="6"/>
         <v>12.184999999999999</v>
       </c>
-      <c r="H23" s="10">
-        <f t="shared" si="0"/>
+      <c r="H23" s="6">
+        <f t="shared" si="6"/>
         <v>79.565000000000012</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="2">
         <f>COUNTIF(H3:H22,"&gt;=85")</f>
         <v>7</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="3">
         <f>ROUND(SUMPRODUCT(ISNUMBER(FIND("A",B3:B22))+ISNUMBER(FIND("B",B3:B22)),H3:H22),0)</f>
         <v>1069</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="6">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="3">
         <f>SUMIFS(G3:G22,$I$3:$I$22,"&gt;=10",$I$3:$I$22,"&lt;=15")</f>
         <v>74.600000000000009</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <f>SUMIFS(H3:H22,$I$3:$I$22,"&gt;=10",$I$3:$I$22,"&lt;=15")</f>
         <v>466.99999999999994</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="6">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="3">
         <f>SUMPRODUCT((LEFT($A$3:$A$22,1)="이")*(($B$3:$B$22="B")+($B$3:$B$22="C")),G3:G22)</f>
         <v>24.4</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <f>SUMPRODUCT((LEFT($A$3:$A$22,1)="이")*(($B$3:$B$22="B")+($B$3:$B$22="C")),H3:H22)</f>
         <v>163.80000000000001</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J22">
